--- a/LTDD/DoAnMonHoc_GiaoDien.xlsx
+++ b/LTDD/DoAnMonHoc_GiaoDien.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LCT\android\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DoAn-RapChieuPhim\LTDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504EE213-85CF-4A45-A309-221274F886AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>STT</t>
   </si>
@@ -59,12 +60,6 @@
     <t>Giao diện chi tiết phim</t>
   </si>
   <si>
-    <t>-Form filter
--Hình đại diện, tên phim, thể loại, độ tuổi, số điểm
-- Độ tuổi, điểm hiển thị trên hình
-- Filter theo trạng thái (đang chiếu, sắp chiếu)</t>
-  </si>
-  <si>
     <t>Giao diện thanh toán</t>
   </si>
   <si>
@@ -79,23 +74,134 @@
     <t>Giao diện trang cá nhân</t>
   </si>
   <si>
-    <t>-Gồm các tab thông tin, giao dịch
--Thông tin hiển thị tên đăng nhập, họ tên, số điện thoại, ngày sinh, email, địa chỉ (chọn tỉnh/thành phố, huyện/quận, xã/phường), mật khẩu
--Giao dịch: tổng tiền sử dụng trong năm, trong tháng, các tháng, danh sách các đơn đặt lịch, lọc các đơn</t>
-  </si>
-  <si>
     <t>Giao diện đăng nhập/ đăng ký</t>
   </si>
   <si>
-    <t>-Hình nền
-- 2 Tab đăng nhập (Email+Password), đăng ký (Email+Password+Hình)</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>-Gồm các tab thông tin, giao dịch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">-Thông tin hiển thị tên đăng nhập, họ tên, số điện thoại, ngày sinh, email, địa chỉ (chọn tỉnh/thành phố, huyện/quận, xã/phường), mật khẩu
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>-Giao dịch: tổng tiền sử dụng trong năm, trong tháng, các tháng, danh sách các đơn đặt lịch, lọc các đơn</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-Hình nền
+- 2 Tab đăng nhập (Email+Password), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>đăng ký (Email+Password+Hình)</t>
+    </r>
+  </si>
+  <si>
+    <t>Màu đỏ là đã hoàn thành xong</t>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Form filter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+-Hình đại diện, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>tên phim</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>thể loại</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>, độ tuổi, số điểm
+- Độ tuổi, điểm hiển thị trên hình
+- Filter theo trạng thái (đang chiếu, sắp chiếu)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -116,6 +222,12 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -323,14 +435,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -339,9 +445,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -363,6 +466,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -676,127 +791,132 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.2">
-      <c r="A4" s="10">
+    <row r="4" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="13"/>
-    </row>
-    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.2">
-      <c r="A5" s="14">
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="15"/>
-    </row>
-    <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.2">
-      <c r="A6" s="14">
-        <v>3</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="C7" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="12"/>
+    </row>
+    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="15"/>
-    </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A7" s="14">
-        <v>4</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="15"/>
-    </row>
-    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.2">
-      <c r="A8" s="14">
-        <v>5</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="12"/>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="15"/>
-    </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A9" s="14">
-        <v>6</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="D9" s="12"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="15"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
